--- a/biology/Botanique/Koishikawa_Kōraku-en/Koishikawa_Kōraku-en.xlsx
+++ b/biology/Botanique/Koishikawa_Kōraku-en/Koishikawa_Kōraku-en.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Koishikawa_K%C5%8Draku-en</t>
+          <t>Koishikawa_Kōraku-en</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Koishikawa Kōraku-en (小石川後楽園?) est un jardin japonais situé à proximité du Tokyo Dome dans le quartier de Koishikawa de l'arrondissement de Bunkyō, à Tōkyō. Il comporte un lac central et plusieurs petites collines, ce qui en fait un lieu de promenade apprécié, et typique des jardins de promenade (kaiyushiki teien) de l'époque d'Edo. C'est le jardin le plus ancien de Tōkyō. Son aménagement a été entrepris en 1629 par Yorifusa Mito, neuvième fils de Ieyasu Tokugawa, daimyo et fondateur de la famille Mito du clan Tokugawa. Il a été poursuivi par son successeur, Mitsukuni Mito, avec l'aide de Shu Shinsui (ou Zhu Shun-sui, 1600-1682), un lettré confucéen de la dynastie Ming réfugié au Japon. Plusieurs paysages de Chine et du Japon y sont évoqués ou reproduits en miniature. Il occupait 25 hectares à l'origine, mais l'urbanisation de Tōkyō a réduit sa taille à 7 hectares (70 847,17 m2).
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Koishikawa_K%C5%8Draku-en</t>
+          <t>Koishikawa_Kōraku-en</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,12 @@
           <t>Sites particuliers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour Massimo Ferriolo, le jardin figure une représentation du monde en quatre paysages différents, tous symboliques : un miroir d'eau central (qui symbolise la mer), des eaux qui susurrent (les rivières), des collines (les montagnes), et une rizière (la campagne).
-Osensui (大泉水), le lac principal, est une évocation du lac Biwa. Il comporte une île centrale boisée (Hōraijima, représentation de l'île mythique d'Hōrai), qui se reflète dans le lac lorsqu'elle est vue du sud, et un ensemble de pierres (Chikubu-shima) fréquenté par des canards. L'île centrale contient un sanctuaire, Benzai-Tenno-Miya. Le lac est alimenté au sud par une petite rivière, la Tatsuta, nommée et tracée d'après une rivière célèbre pour sa beauté en automne[1] ; elle traverse un bosquet de momiji avant de se jeter dans le lac.
+Osensui (大泉水), le lac principal, est une évocation du lac Biwa. Il comporte une île centrale boisée (Hōraijima, représentation de l'île mythique d'Hōrai), qui se reflète dans le lac lorsqu'elle est vue du sud, et un ensemble de pierres (Chikubu-shima) fréquenté par des canards. L'île centrale contient un sanctuaire, Benzai-Tenno-Miya. Le lac est alimenté au sud par une petite rivière, la Tatsuta, nommée et tracée d'après une rivière célèbre pour sa beauté en automne ; elle traverse un bosquet de momiji avant de se jeter dans le lac.
 Seiko-tsutsumi est un lac secondaire couvert de lotus sacrés blancs et divisé par une digue ; il évoque le lac Saiko ou lac de l'Ouest (西湖), près de Hangzhou en Chine. Au nord se trouve une chute d'eau, Otowa-no-taki (d'après une célèbre chute d'eau), et un petit pont de pierre, Engetsukyō (« pont de pleine lune »). L'arche de ce pont est en forme de demi-cercle ; sa réflexion dans le plan d'eau donne un cercle entier, comme une pleine lune. C'est une reproduction d'un pont chinois, dont l'auteur est vraisemblablement Shu shinsui. Le pont est un des rares éléments du jardin conservés dans leur état d'origine. Une petite colline, nommée Shorozan, d'après une montagne chinoise, surplombe le lac depuis l'est.
 Tokujin-do est un petit temple qui abrite une statue en bois ayant appartenu à Mitsukuni Mito. Il en a décidé la construction après avoir lu à dix-huit ans Hakui Retsuden, une histoire du recueil chinois Shiki. Le temple est dédié aux deux frères mentionnés dans le récit.
 Tsutenkyō est un pont en bois qui enjambe une gorge, réplique d'un pont à Kyōto ; sa couleur vermillon est accentuée par les momiji (érables palmés) en novembre. Togetsukyō est un autre pont évoquant un pont de Kyōto.
